--- a/src/main/resources/templates/房源模板.xlsx
+++ b/src/main/resources/templates/房源模板.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A877B7D7-CE53-40A0-B07B-BF30B110DF1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F5F29-7CAB-4EDD-B9D7-C0973098DA7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="房源模板" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>销控表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供房源平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配征收项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +67,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -85,10 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,21 +448,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,25 +474,32 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/房源模板.xlsx
+++ b/src/main/resources/templates/房源模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F5F29-7CAB-4EDD-B9D7-C0973098DA7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23BAB0-4081-452A-8A35-D1C90B0DBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>销控表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,23 +33,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供房源平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分配征收项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测总价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,63 +456,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
